--- a/xlsx/脑_intext.xlsx
+++ b/xlsx/脑_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1325">
   <si>
     <t>脑</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
   </si>
   <si>
-    <t>人腦</t>
+    <t>人脑</t>
   </si>
   <si>
     <t>政策_政策_计划_脑</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%8C%A9%E7%8C%A9%E5%B1%AC</t>
   </si>
   <si>
-    <t>黑猩猩屬</t>
+    <t>黑猩猩属</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Terminologia_Anatomica</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%85%83</t>
   </si>
   <si>
-    <t>神經元</t>
+    <t>神经元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93</t>
   </si>
   <si>
-    <t>神經</t>
+    <t>神经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>細胞</t>
+    <t>细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%B3%BB%E7%BB%9F</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E8%A6%BA</t>
   </si>
   <si>
-    <t>感覺</t>
+    <t>感觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E8%A7%89</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E6%BA%AB</t>
   </si>
   <si>
-    <t>體溫</t>
+    <t>体温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5</t>
   </si>
   <si>
-    <t>認知</t>
+    <t>认知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%84%9F</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E6%90%8D%E5%82%B7</t>
   </si>
   <si>
-    <t>腦損傷</t>
+    <t>脑损伤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%97%85%E7%90%83</t>
@@ -389,9 +389,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E5%85%83</t>
   </si>
   <si>
-    <t>神经元</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E8%83%B6%E8%B4%A8%E7%BB%86%E8%83%9E</t>
   </si>
   <si>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E8%9F%B2%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>線蟲動物</t>
+    <t>线虫动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%9B%AD</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%8C%E9%9B%84%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>雌雄同體</t>
+    <t>雌雄同体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/connectome</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%AA%E5%AE%9A%E5%BE%8B</t>
   </si>
   <si>
-    <t>冪定律</t>
+    <t>幂定律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%82</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%9A%E8%83%8E%E7%99%BC%E8%82%B2</t>
   </si>
   <si>
-    <t>胚胎發育</t>
+    <t>胚胎发育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/neural_tube</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E8%85%A6%E5%B1%8F%E9%9A%9C</t>
   </si>
   <si>
-    <t>血腦屏障</t>
+    <t>血脑屏障</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%B4%A0</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B%E8%85%A6</t>
   </si>
   <si>
-    <t>橋腦</t>
+    <t>桥脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E9%AB%93</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E7%8D%BC%E7%8C%B4</t>
   </si>
   <si>
-    <t>普通獼猴</t>
+    <t>普通猕猴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BD%E5%90%BB%E6%B5%B7%E8%B1%9A</t>
@@ -869,13 +866,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93</t>
   </si>
   <si>
-    <t>貓</t>
+    <t>猫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%83%A8</t>
   </si>
   <si>
-    <t>馬部</t>
+    <t>马部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BC%A0</t>
@@ -899,13 +896,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E9%A1%8D%E8%91%89%E7%9A%AE%E8%B3%AA</t>
   </si>
   <si>
-    <t>前額葉皮質</t>
+    <t>前额叶皮质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%8A%83</t>
   </si>
   <si>
-    <t>規劃</t>
+    <t>规划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E8%AE%B0%E5%BF%86</t>
@@ -1043,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E9%9B%BB%E5%9C%96</t>
   </si>
   <si>
-    <t>腦電圖</t>
+    <t>脑电图</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Magnetoencephalography</t>
@@ -1127,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E8%AB%96_(%E7%B2%BE%E7%A5%9E%E5%93%B2%E5%AD%B8)</t>
   </si>
   <si>
-    <t>二元論 (精神哲學)</t>
+    <t>二元论 (精神哲学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E8%AE%BA</t>
@@ -1181,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E4%BC%91%E4%BC%AF%E7%88%BE</t>
   </si>
   <si>
-    <t>大衛·休伯爾</t>
+    <t>大卫·休伯尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%96%AF%E5%9D%A6%C2%B7%E5%A8%81%E6%B3%BD%E5%B0%94</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>運動控制</t>
+    <t>运动控制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/motor_neuron</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%90%E9%AB%94%E6%9D%9F</t>
   </si>
   <si>
-    <t>錐體束</t>
+    <t>锥体束</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anterior_horn_of_spinal_cord</t>
@@ -1361,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%96%9A%E8%B5%B7</t>
   </si>
   <si>
-    <t>性喚起</t>
+    <t>性唤起</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9D%A1%E7%9C%A0</t>
@@ -1409,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BF%AB%E9%80%9F%E5%8B%95%E7%9C%BC%E7%9D%A1%E7%9C%A0</t>
   </si>
   <si>
-    <t>非快速動眼睡眠</t>
+    <t>非快速动眼睡眠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%A2%E6%B3%A2%E7%9D%A1%E7%9C%A0</t>
@@ -1517,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E5%A2%9E%E5%BC%B7%E4%BD%9C%E7%94%A8</t>
   </si>
   <si>
-    <t>長期增強作用</t>
+    <t>长期增强作用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%91%E6%BA%90%E6%80%A7%E7%A5%9E%E7%BB%8F%E8%90%A5%E5%85%BB%E5%9B%A0%E5%AD%90</t>
@@ -1547,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%86%B6%E7%97%87</t>
   </si>
   <si>
-    <t>失憶症</t>
+    <t>失忆症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E4%B9%89%E8%AE%B0%E5%BF%86</t>
@@ -1559,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E5%88%B6%E7%B4%84</t>
   </si>
   <si>
-    <t>操作制約</t>
+    <t>操作制约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Motor_learning</t>
@@ -1823,7 +1820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%93%E8%89%B2_(%E7%94%9F%E7%89%A9%E5%AD%B8)</t>
   </si>
   <si>
-    <t>染色 (生物學)</t>
+    <t>染色 (生物学)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Golgi%27s_method</t>
@@ -1847,7 +1844,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E8%B5%AB%E8%83%A5%E9%BB%8E</t>
   </si>
   <si>
-    <t>安德魯·赫胥黎</t>
+    <t>安德鲁·赫胥黎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BA%B3%E5%BE%B7%C2%B7%E5%8D%A1%E8%8C%A8</t>
@@ -1943,7 +1940,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>牛津大學出版社</t>
+    <t>牛津大学出版社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Brain_Research_Reviews</t>
@@ -2009,7 +2006,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%BA%AD%E7%A5%9E%E7%B6%93%E6%A0%B8</t>
   </si>
   <si>
-    <t>前庭神經核</t>
+    <t>前庭神经核</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lateral_vestibular_nucleus</t>
@@ -2093,9 +2090,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>白質</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Sensory_decussation</t>
   </si>
   <si>
@@ -2255,15 +2249,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%A8%9E%E7%A5%9E%E7%B6%93%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>中樞神經系統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%85%A6</t>
   </si>
   <si>
-    <t>中腦</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Midbrain_tectum</t>
   </si>
   <si>
@@ -2345,7 +2333,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E9%AB%93%E4%B8%98%E8%85%A6%E6%9D%9F</t>
   </si>
   <si>
-    <t>脊髓丘腦束</t>
+    <t>脊髓丘脑束</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anterior_trigeminothalamic_tract</t>
@@ -2369,7 +2357,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%9C%BC%E7%A5%9E%E7%B6%93%E5%89%AF%E6%A0%B8</t>
   </si>
   <si>
-    <t>動眼神經副核</t>
+    <t>动眼神经副核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%BC%E6%B0%B4%E7%AE%A1%E5%91%A8%E5%9B%B4%E7%81%B0%E8%B4%A8</t>
@@ -2399,7 +2387,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%B3%AA%E8%84%8A%E9%AB%93%E6%9D%9F</t>
   </si>
   <si>
-    <t>皮質脊髓束</t>
+    <t>皮质脊髓束</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%B4%A8%E5%BB%B6%E9%AB%93%E6%9D%9F</t>
@@ -2447,7 +2435,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E6%9E%9C%E9%AB%94</t>
   </si>
   <si>
-    <t>松果體</t>
+    <t>松果体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Habenula</t>
@@ -2735,7 +2723,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>內分泌系統</t>
+    <t>内分泌系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/posterior_pituitary</t>
@@ -2783,7 +2771,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%93%E7%8B%80%E6%A0%B8</t>
   </si>
   <si>
-    <t>弓狀核</t>
+    <t>弓状核</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Preoptic_area</t>
@@ -2843,7 +2831,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%82%E9%AB%94</t>
   </si>
   <si>
-    <t>垂體</t>
+    <t>垂体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Posterior_pituitary</t>
@@ -2879,9 +2867,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%85%A6%E7%9A%AE%E8%B3%AA</t>
   </si>
   <si>
-    <t>大腦皮質</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%9D%E5%8F%B6</t>
   </si>
   <si>
@@ -3293,7 +3278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B3%E8%91%89</t>
   </si>
   <si>
-    <t>顳葉</t>
+    <t>颞叶</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transverse_temporal_gyrus</t>
@@ -3377,9 +3362,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%9E%E5%8F%B6</t>
   </si>
   <si>
-    <t>颞叶</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Brodmann_area_27</t>
   </si>
   <si>
@@ -3455,7 +3437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E7%B8%B1%E8%A3%82</t>
   </si>
   <si>
-    <t>中央縱裂</t>
+    <t>中央纵裂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cingulate_sulcus</t>
@@ -3479,7 +3461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%B7%A3%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>邊緣系統</t>
+    <t>边缘系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parahippocampal_gyrus</t>
@@ -3611,7 +3593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%A6%AC%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>海馬結構</t>
+    <t>海马结构</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hippocampal_sulcus</t>
@@ -3671,61 +3653,61 @@
     <t>https://zh.wikipedia.org/wiki/Brodmann%E5%88%86%E5%8D%80%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>Brodmann分區系統</t>
+    <t>Brodmann分区系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%9F%E8%85%91</t>
   </si>
   <si>
-    <t>臟腑</t>
+    <t>脏腑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%9D_(%E8%87%9F%E8%85%91)</t>
   </si>
   <si>
-    <t>肝 (臟腑)</t>
+    <t>肝 (脏腑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83_(%E8%87%9F%E8%85%91)</t>
   </si>
   <si>
-    <t>心 (臟腑)</t>
+    <t>心 (脏腑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E5%8C%85%E7%B5%A1</t>
   </si>
   <si>
-    <t>心包絡</t>
+    <t>心包络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%BE_(%E8%87%9F%E8%85%91)</t>
   </si>
   <si>
-    <t>脾 (臟腑)</t>
+    <t>脾 (脏腑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%BA_(%E8%87%9F%E8%85%91)</t>
   </si>
   <si>
-    <t>肺 (臟腑)</t>
+    <t>肺 (脏腑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E_(%E8%87%9F%E8%85%91)</t>
   </si>
   <si>
-    <t>腎 (臟腑)</t>
+    <t>肾 (脏腑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%BD_(%E8%87%9F%E8%85%91)</t>
   </si>
   <si>
-    <t>膽 (臟腑)</t>
+    <t>胆 (脏腑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%85%B8_(%E8%87%9F%E8%85%91)</t>
   </si>
   <si>
-    <t>小腸 (臟腑)</t>
+    <t>小肠 (脏腑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%84%A6</t>
@@ -3737,27 +3719,24 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%83_(%E8%87%9F%E8%85%91)</t>
   </si>
   <si>
-    <t>胃 (臟腑)</t>
+    <t>胃 (脏腑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%85%B8_(%E8%87%9F%E8%85%91)</t>
   </si>
   <si>
-    <t>大腸 (臟腑)</t>
+    <t>大肠 (脏腑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%80%E8%83%B1_(%E8%87%9F%E8%85%91)</t>
   </si>
   <si>
-    <t>膀胱 (臟腑)</t>
+    <t>膀胱 (脏腑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6</t>
   </si>
   <si>
-    <t>腦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%93</t>
   </si>
   <si>
@@ -3773,7 +3752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%88</t>
   </si>
   <si>
-    <t>脈</t>
+    <t>脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%AE%AB</t>
@@ -3791,7 +3770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E6%B6%B2%E5%BE%AA%E7%92%B0%E5%85%B1%E6%8C%AF%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>血液循環共振理論</t>
+    <t>血液循环共振理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E7%BB%9C</t>
@@ -3827,7 +3806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%85%A6%E9%90%AE</t>
   </si>
   <si>
-    <t>大腦鐮</t>
+    <t>大脑镰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tentorium_cerebelli</t>
@@ -3953,7 +3932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%88%E7%B5%A1%E5%8F%A2</t>
   </si>
   <si>
-    <t>脈絡叢</t>
+    <t>脉络丛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Perivascular_space</t>
@@ -3989,13 +3968,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E8%84%8A%E6%B6%B2</t>
   </si>
   <si>
-    <t>腦脊液</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4007,7 +3983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -6153,7 +6129,7 @@
         <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="G62" t="n">
         <v>65</v>
@@ -6179,10 +6155,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -6208,10 +6184,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -6237,10 +6213,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>10</v>
@@ -6266,10 +6242,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -6295,10 +6271,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -6324,10 +6300,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -6353,10 +6329,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -6382,10 +6358,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -6411,10 +6387,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>7</v>
@@ -6440,10 +6416,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -6469,10 +6445,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -6498,10 +6474,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -6527,10 +6503,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -6556,10 +6532,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -6585,10 +6561,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -6614,10 +6590,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -6643,10 +6619,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>7</v>
@@ -6672,10 +6648,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -6701,10 +6677,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -6730,10 +6706,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -6759,10 +6735,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -6788,10 +6764,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -6817,10 +6793,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -6846,10 +6822,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -6875,10 +6851,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6904,10 +6880,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6933,10 +6909,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -6962,10 +6938,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6991,10 +6967,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -7020,10 +6996,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -7049,10 +7025,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -7078,10 +7054,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -7107,10 +7083,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -7136,10 +7112,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>5</v>
@@ -7165,10 +7141,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -7194,10 +7170,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -7223,10 +7199,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>24</v>
@@ -7252,10 +7228,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -7281,10 +7257,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -7310,10 +7286,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -7339,10 +7315,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -7368,10 +7344,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -7397,10 +7373,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -7426,10 +7402,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>15</v>
@@ -7455,10 +7431,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>19</v>
@@ -7484,10 +7460,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -7513,10 +7489,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -7542,10 +7518,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -7571,10 +7547,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7600,10 +7576,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -7629,10 +7605,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -7658,10 +7634,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7687,10 +7663,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7716,10 +7692,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>5</v>
@@ -7745,10 +7721,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -7774,10 +7750,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -7803,10 +7779,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>19</v>
@@ -7832,10 +7808,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -7861,10 +7837,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>8</v>
@@ -7890,10 +7866,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7919,10 +7895,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -7948,10 +7924,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>13</v>
@@ -7977,10 +7953,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>30</v>
@@ -8006,10 +7982,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -8035,10 +8011,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -8064,10 +8040,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -8093,10 +8069,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -8122,10 +8098,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -8151,10 +8127,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -8180,10 +8156,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>9</v>
@@ -8209,10 +8185,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>16</v>
@@ -8238,10 +8214,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8267,10 +8243,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -8296,10 +8272,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -8325,10 +8301,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>19</v>
@@ -8354,10 +8330,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8383,10 +8359,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8412,10 +8388,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>9</v>
@@ -8441,10 +8417,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8470,10 +8446,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8499,10 +8475,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>12</v>
@@ -8528,10 +8504,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -8557,10 +8533,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>14</v>
@@ -8586,10 +8562,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -8615,10 +8591,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -8644,10 +8620,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8673,10 +8649,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -8702,10 +8678,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>5</v>
@@ -8731,10 +8707,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -8760,10 +8736,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -8789,10 +8765,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -8818,10 +8794,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8847,10 +8823,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8876,10 +8852,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8905,10 +8881,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -8934,10 +8910,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8963,10 +8939,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -8992,10 +8968,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -9021,10 +8997,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
         <v>321</v>
-      </c>
-      <c r="F161" t="s">
-        <v>322</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -9050,10 +9026,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
         <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>324</v>
       </c>
       <c r="G162" t="n">
         <v>5</v>
@@ -9079,10 +9055,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
         <v>325</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -9108,10 +9084,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -9137,10 +9113,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
         <v>329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>330</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -9166,10 +9142,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -9195,10 +9171,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
         <v>333</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -9224,10 +9200,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
         <v>335</v>
-      </c>
-      <c r="F168" t="s">
-        <v>336</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -9253,10 +9229,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -9282,10 +9258,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>5</v>
@@ -9311,10 +9287,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -9340,10 +9316,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
         <v>343</v>
-      </c>
-      <c r="F172" t="s">
-        <v>344</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -9369,10 +9345,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
         <v>345</v>
-      </c>
-      <c r="F173" t="s">
-        <v>346</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -9398,10 +9374,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
         <v>347</v>
-      </c>
-      <c r="F174" t="s">
-        <v>348</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9427,10 +9403,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
         <v>349</v>
-      </c>
-      <c r="F175" t="s">
-        <v>350</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -9456,10 +9432,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
         <v>351</v>
-      </c>
-      <c r="F176" t="s">
-        <v>352</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9485,10 +9461,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
         <v>353</v>
-      </c>
-      <c r="F177" t="s">
-        <v>354</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -9514,10 +9490,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
         <v>355</v>
-      </c>
-      <c r="F178" t="s">
-        <v>356</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9543,10 +9519,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
         <v>357</v>
-      </c>
-      <c r="F179" t="s">
-        <v>358</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9572,10 +9548,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
         <v>359</v>
-      </c>
-      <c r="F180" t="s">
-        <v>360</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9601,10 +9577,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>360</v>
+      </c>
+      <c r="F181" t="s">
         <v>361</v>
-      </c>
-      <c r="F181" t="s">
-        <v>362</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9630,10 +9606,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
         <v>363</v>
-      </c>
-      <c r="F182" t="s">
-        <v>364</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9659,10 +9635,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F183" t="s">
         <v>365</v>
-      </c>
-      <c r="F183" t="s">
-        <v>366</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9688,10 +9664,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>366</v>
+      </c>
+      <c r="F184" t="s">
         <v>367</v>
-      </c>
-      <c r="F184" t="s">
-        <v>368</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9717,10 +9693,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>368</v>
+      </c>
+      <c r="F185" t="s">
         <v>369</v>
-      </c>
-      <c r="F185" t="s">
-        <v>370</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9746,10 +9722,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>370</v>
+      </c>
+      <c r="F186" t="s">
         <v>371</v>
-      </c>
-      <c r="F186" t="s">
-        <v>372</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9775,10 +9751,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>372</v>
+      </c>
+      <c r="F187" t="s">
         <v>373</v>
-      </c>
-      <c r="F187" t="s">
-        <v>374</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -9804,10 +9780,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>374</v>
+      </c>
+      <c r="F188" t="s">
         <v>375</v>
-      </c>
-      <c r="F188" t="s">
-        <v>376</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -9833,10 +9809,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>376</v>
+      </c>
+      <c r="F189" t="s">
         <v>377</v>
-      </c>
-      <c r="F189" t="s">
-        <v>378</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9862,10 +9838,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>378</v>
+      </c>
+      <c r="F190" t="s">
         <v>379</v>
-      </c>
-      <c r="F190" t="s">
-        <v>380</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -9891,10 +9867,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>380</v>
+      </c>
+      <c r="F191" t="s">
         <v>381</v>
-      </c>
-      <c r="F191" t="s">
-        <v>382</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9920,10 +9896,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>382</v>
+      </c>
+      <c r="F192" t="s">
         <v>383</v>
-      </c>
-      <c r="F192" t="s">
-        <v>384</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -9949,10 +9925,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>384</v>
+      </c>
+      <c r="F193" t="s">
         <v>385</v>
-      </c>
-      <c r="F193" t="s">
-        <v>386</v>
       </c>
       <c r="G193" t="n">
         <v>8</v>
@@ -9978,10 +9954,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>386</v>
+      </c>
+      <c r="F194" t="s">
         <v>387</v>
-      </c>
-      <c r="F194" t="s">
-        <v>388</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -10007,10 +9983,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>388</v>
+      </c>
+      <c r="F195" t="s">
         <v>389</v>
-      </c>
-      <c r="F195" t="s">
-        <v>390</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -10036,10 +10012,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>390</v>
+      </c>
+      <c r="F196" t="s">
         <v>391</v>
-      </c>
-      <c r="F196" t="s">
-        <v>392</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -10065,10 +10041,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>392</v>
+      </c>
+      <c r="F197" t="s">
         <v>393</v>
-      </c>
-      <c r="F197" t="s">
-        <v>394</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -10094,10 +10070,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>394</v>
+      </c>
+      <c r="F198" t="s">
         <v>395</v>
-      </c>
-      <c r="F198" t="s">
-        <v>396</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -10123,10 +10099,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F199" t="s">
         <v>397</v>
-      </c>
-      <c r="F199" t="s">
-        <v>398</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -10152,10 +10128,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>398</v>
+      </c>
+      <c r="F200" t="s">
         <v>399</v>
-      </c>
-      <c r="F200" t="s">
-        <v>400</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -10181,10 +10157,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>400</v>
+      </c>
+      <c r="F201" t="s">
         <v>401</v>
-      </c>
-      <c r="F201" t="s">
-        <v>402</v>
       </c>
       <c r="G201" t="n">
         <v>6</v>
@@ -10210,10 +10186,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>402</v>
+      </c>
+      <c r="F202" t="s">
         <v>403</v>
-      </c>
-      <c r="F202" t="s">
-        <v>404</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -10239,10 +10215,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>404</v>
+      </c>
+      <c r="F203" t="s">
         <v>405</v>
-      </c>
-      <c r="F203" t="s">
-        <v>406</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -10268,10 +10244,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>406</v>
+      </c>
+      <c r="F204" t="s">
         <v>407</v>
-      </c>
-      <c r="F204" t="s">
-        <v>408</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -10297,10 +10273,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>408</v>
+      </c>
+      <c r="F205" t="s">
         <v>409</v>
-      </c>
-      <c r="F205" t="s">
-        <v>410</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -10326,10 +10302,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>410</v>
+      </c>
+      <c r="F206" t="s">
         <v>411</v>
-      </c>
-      <c r="F206" t="s">
-        <v>412</v>
       </c>
       <c r="G206" t="n">
         <v>4</v>
@@ -10355,10 +10331,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>412</v>
+      </c>
+      <c r="F207" t="s">
         <v>413</v>
-      </c>
-      <c r="F207" t="s">
-        <v>414</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10384,10 +10360,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>414</v>
+      </c>
+      <c r="F208" t="s">
         <v>415</v>
-      </c>
-      <c r="F208" t="s">
-        <v>416</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10413,10 +10389,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>416</v>
+      </c>
+      <c r="F209" t="s">
         <v>417</v>
-      </c>
-      <c r="F209" t="s">
-        <v>418</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10442,10 +10418,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
         <v>419</v>
-      </c>
-      <c r="F210" t="s">
-        <v>420</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -10471,10 +10447,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
         <v>421</v>
-      </c>
-      <c r="F211" t="s">
-        <v>422</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10500,10 +10476,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
         <v>423</v>
-      </c>
-      <c r="F212" t="s">
-        <v>424</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -10529,10 +10505,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
         <v>425</v>
-      </c>
-      <c r="F213" t="s">
-        <v>426</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10558,10 +10534,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
         <v>427</v>
-      </c>
-      <c r="F214" t="s">
-        <v>428</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10587,10 +10563,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>428</v>
+      </c>
+      <c r="F215" t="s">
         <v>429</v>
-      </c>
-      <c r="F215" t="s">
-        <v>430</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -10616,10 +10592,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
         <v>431</v>
-      </c>
-      <c r="F216" t="s">
-        <v>432</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -10645,10 +10621,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>432</v>
+      </c>
+      <c r="F217" t="s">
         <v>433</v>
-      </c>
-      <c r="F217" t="s">
-        <v>434</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -10674,10 +10650,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" t="s">
         <v>435</v>
-      </c>
-      <c r="F218" t="s">
-        <v>436</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10703,10 +10679,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>436</v>
+      </c>
+      <c r="F219" t="s">
         <v>437</v>
-      </c>
-      <c r="F219" t="s">
-        <v>438</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10732,10 +10708,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>438</v>
+      </c>
+      <c r="F220" t="s">
         <v>439</v>
-      </c>
-      <c r="F220" t="s">
-        <v>440</v>
       </c>
       <c r="G220" t="n">
         <v>5</v>
@@ -10761,10 +10737,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>440</v>
+      </c>
+      <c r="F221" t="s">
         <v>441</v>
-      </c>
-      <c r="F221" t="s">
-        <v>442</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10790,10 +10766,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" t="s">
         <v>443</v>
-      </c>
-      <c r="F222" t="s">
-        <v>444</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10819,10 +10795,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>444</v>
+      </c>
+      <c r="F223" t="s">
         <v>445</v>
-      </c>
-      <c r="F223" t="s">
-        <v>446</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10848,10 +10824,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>446</v>
+      </c>
+      <c r="F224" t="s">
         <v>447</v>
-      </c>
-      <c r="F224" t="s">
-        <v>448</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10877,10 +10853,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>448</v>
+      </c>
+      <c r="F225" t="s">
         <v>449</v>
-      </c>
-      <c r="F225" t="s">
-        <v>450</v>
       </c>
       <c r="G225" t="n">
         <v>22</v>
@@ -10906,10 +10882,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>450</v>
+      </c>
+      <c r="F226" t="s">
         <v>451</v>
-      </c>
-      <c r="F226" t="s">
-        <v>452</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10935,10 +10911,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>452</v>
+      </c>
+      <c r="F227" t="s">
         <v>453</v>
-      </c>
-      <c r="F227" t="s">
-        <v>454</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -10964,10 +10940,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>454</v>
+      </c>
+      <c r="F228" t="s">
         <v>455</v>
-      </c>
-      <c r="F228" t="s">
-        <v>456</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -10993,10 +10969,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>456</v>
+      </c>
+      <c r="F229" t="s">
         <v>457</v>
-      </c>
-      <c r="F229" t="s">
-        <v>458</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -11022,10 +10998,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>458</v>
+      </c>
+      <c r="F230" t="s">
         <v>459</v>
-      </c>
-      <c r="F230" t="s">
-        <v>460</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -11051,10 +11027,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>460</v>
+      </c>
+      <c r="F231" t="s">
         <v>461</v>
-      </c>
-      <c r="F231" t="s">
-        <v>462</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -11080,10 +11056,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>462</v>
+      </c>
+      <c r="F232" t="s">
         <v>463</v>
-      </c>
-      <c r="F232" t="s">
-        <v>464</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -11109,10 +11085,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>464</v>
+      </c>
+      <c r="F233" t="s">
         <v>465</v>
-      </c>
-      <c r="F233" t="s">
-        <v>466</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -11138,10 +11114,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>466</v>
+      </c>
+      <c r="F234" t="s">
         <v>467</v>
-      </c>
-      <c r="F234" t="s">
-        <v>468</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -11167,10 +11143,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>468</v>
+      </c>
+      <c r="F235" t="s">
         <v>469</v>
-      </c>
-      <c r="F235" t="s">
-        <v>470</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -11196,10 +11172,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>470</v>
+      </c>
+      <c r="F236" t="s">
         <v>471</v>
-      </c>
-      <c r="F236" t="s">
-        <v>472</v>
       </c>
       <c r="G236" t="n">
         <v>6</v>
@@ -11225,10 +11201,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>472</v>
+      </c>
+      <c r="F237" t="s">
         <v>473</v>
-      </c>
-      <c r="F237" t="s">
-        <v>474</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -11254,10 +11230,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>474</v>
+      </c>
+      <c r="F238" t="s">
         <v>475</v>
-      </c>
-      <c r="F238" t="s">
-        <v>476</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -11283,10 +11259,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>476</v>
+      </c>
+      <c r="F239" t="s">
         <v>477</v>
-      </c>
-      <c r="F239" t="s">
-        <v>478</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -11312,10 +11288,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>478</v>
+      </c>
+      <c r="F240" t="s">
         <v>479</v>
-      </c>
-      <c r="F240" t="s">
-        <v>480</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -11341,10 +11317,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>480</v>
+      </c>
+      <c r="F241" t="s">
         <v>481</v>
-      </c>
-      <c r="F241" t="s">
-        <v>482</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -11370,10 +11346,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>482</v>
+      </c>
+      <c r="F242" t="s">
         <v>483</v>
-      </c>
-      <c r="F242" t="s">
-        <v>484</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -11399,10 +11375,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>484</v>
+      </c>
+      <c r="F243" t="s">
         <v>485</v>
-      </c>
-      <c r="F243" t="s">
-        <v>486</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -11428,10 +11404,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>486</v>
+      </c>
+      <c r="F244" t="s">
         <v>487</v>
-      </c>
-      <c r="F244" t="s">
-        <v>488</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11457,10 +11433,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>488</v>
+      </c>
+      <c r="F245" t="s">
         <v>489</v>
-      </c>
-      <c r="F245" t="s">
-        <v>490</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -11486,10 +11462,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>490</v>
+      </c>
+      <c r="F246" t="s">
         <v>491</v>
-      </c>
-      <c r="F246" t="s">
-        <v>492</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11515,10 +11491,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>492</v>
+      </c>
+      <c r="F247" t="s">
         <v>493</v>
-      </c>
-      <c r="F247" t="s">
-        <v>494</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -11544,10 +11520,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>494</v>
+      </c>
+      <c r="F248" t="s">
         <v>495</v>
-      </c>
-      <c r="F248" t="s">
-        <v>496</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11573,10 +11549,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>496</v>
+      </c>
+      <c r="F249" t="s">
         <v>497</v>
-      </c>
-      <c r="F249" t="s">
-        <v>498</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11602,10 +11578,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>498</v>
+      </c>
+      <c r="F250" t="s">
         <v>499</v>
-      </c>
-      <c r="F250" t="s">
-        <v>500</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11631,10 +11607,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>500</v>
+      </c>
+      <c r="F251" t="s">
         <v>501</v>
-      </c>
-      <c r="F251" t="s">
-        <v>502</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11660,10 +11636,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>502</v>
+      </c>
+      <c r="F252" t="s">
         <v>503</v>
-      </c>
-      <c r="F252" t="s">
-        <v>504</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11689,10 +11665,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>504</v>
+      </c>
+      <c r="F253" t="s">
         <v>505</v>
-      </c>
-      <c r="F253" t="s">
-        <v>506</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11718,10 +11694,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>506</v>
+      </c>
+      <c r="F254" t="s">
         <v>507</v>
-      </c>
-      <c r="F254" t="s">
-        <v>508</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -11747,10 +11723,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>508</v>
+      </c>
+      <c r="F255" t="s">
         <v>509</v>
-      </c>
-      <c r="F255" t="s">
-        <v>510</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11776,10 +11752,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>510</v>
+      </c>
+      <c r="F256" t="s">
         <v>511</v>
-      </c>
-      <c r="F256" t="s">
-        <v>512</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11805,10 +11781,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>512</v>
+      </c>
+      <c r="F257" t="s">
         <v>513</v>
-      </c>
-      <c r="F257" t="s">
-        <v>514</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11834,10 +11810,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>514</v>
+      </c>
+      <c r="F258" t="s">
         <v>515</v>
-      </c>
-      <c r="F258" t="s">
-        <v>516</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11863,10 +11839,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>516</v>
+      </c>
+      <c r="F259" t="s">
         <v>517</v>
-      </c>
-      <c r="F259" t="s">
-        <v>518</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -11892,10 +11868,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>518</v>
+      </c>
+      <c r="F260" t="s">
         <v>519</v>
-      </c>
-      <c r="F260" t="s">
-        <v>520</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11921,10 +11897,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>520</v>
+      </c>
+      <c r="F261" t="s">
         <v>521</v>
-      </c>
-      <c r="F261" t="s">
-        <v>522</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11950,10 +11926,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>522</v>
+      </c>
+      <c r="F262" t="s">
         <v>523</v>
-      </c>
-      <c r="F262" t="s">
-        <v>524</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -11979,10 +11955,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>524</v>
+      </c>
+      <c r="F263" t="s">
         <v>525</v>
-      </c>
-      <c r="F263" t="s">
-        <v>526</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -12008,10 +11984,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>526</v>
+      </c>
+      <c r="F264" t="s">
         <v>527</v>
-      </c>
-      <c r="F264" t="s">
-        <v>528</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -12037,10 +12013,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>528</v>
+      </c>
+      <c r="F265" t="s">
         <v>529</v>
-      </c>
-      <c r="F265" t="s">
-        <v>530</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -12066,10 +12042,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>530</v>
+      </c>
+      <c r="F266" t="s">
         <v>531</v>
-      </c>
-      <c r="F266" t="s">
-        <v>532</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -12095,10 +12071,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>532</v>
+      </c>
+      <c r="F267" t="s">
         <v>533</v>
-      </c>
-      <c r="F267" t="s">
-        <v>534</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -12124,10 +12100,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>534</v>
+      </c>
+      <c r="F268" t="s">
         <v>535</v>
-      </c>
-      <c r="F268" t="s">
-        <v>536</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -12153,10 +12129,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>536</v>
+      </c>
+      <c r="F269" t="s">
         <v>537</v>
-      </c>
-      <c r="F269" t="s">
-        <v>538</v>
       </c>
       <c r="G269" t="n">
         <v>19</v>
@@ -12182,10 +12158,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>538</v>
+      </c>
+      <c r="F270" t="s">
         <v>539</v>
-      </c>
-      <c r="F270" t="s">
-        <v>540</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -12211,10 +12187,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>540</v>
+      </c>
+      <c r="F271" t="s">
         <v>541</v>
-      </c>
-      <c r="F271" t="s">
-        <v>542</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -12240,10 +12216,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>542</v>
+      </c>
+      <c r="F272" t="s">
         <v>543</v>
-      </c>
-      <c r="F272" t="s">
-        <v>544</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -12269,10 +12245,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>544</v>
+      </c>
+      <c r="F273" t="s">
         <v>545</v>
-      </c>
-      <c r="F273" t="s">
-        <v>546</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -12298,10 +12274,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>546</v>
+      </c>
+      <c r="F274" t="s">
         <v>547</v>
-      </c>
-      <c r="F274" t="s">
-        <v>548</v>
       </c>
       <c r="G274" t="n">
         <v>10</v>
@@ -12327,10 +12303,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>548</v>
+      </c>
+      <c r="F275" t="s">
         <v>549</v>
-      </c>
-      <c r="F275" t="s">
-        <v>550</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -12356,10 +12332,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>550</v>
+      </c>
+      <c r="F276" t="s">
         <v>551</v>
-      </c>
-      <c r="F276" t="s">
-        <v>552</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12385,10 +12361,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>552</v>
+      </c>
+      <c r="F277" t="s">
         <v>553</v>
-      </c>
-      <c r="F277" t="s">
-        <v>554</v>
       </c>
       <c r="G277" t="n">
         <v>9</v>
@@ -12414,10 +12390,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>554</v>
+      </c>
+      <c r="F278" t="s">
         <v>555</v>
-      </c>
-      <c r="F278" t="s">
-        <v>556</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12443,10 +12419,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>556</v>
+      </c>
+      <c r="F279" t="s">
         <v>557</v>
-      </c>
-      <c r="F279" t="s">
-        <v>558</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -12472,10 +12448,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>558</v>
+      </c>
+      <c r="F280" t="s">
         <v>559</v>
-      </c>
-      <c r="F280" t="s">
-        <v>560</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12501,10 +12477,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>560</v>
+      </c>
+      <c r="F281" t="s">
         <v>561</v>
-      </c>
-      <c r="F281" t="s">
-        <v>562</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -12530,10 +12506,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>562</v>
+      </c>
+      <c r="F282" t="s">
         <v>563</v>
-      </c>
-      <c r="F282" t="s">
-        <v>564</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12559,10 +12535,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>564</v>
+      </c>
+      <c r="F283" t="s">
         <v>565</v>
-      </c>
-      <c r="F283" t="s">
-        <v>566</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -12588,10 +12564,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>566</v>
+      </c>
+      <c r="F284" t="s">
         <v>567</v>
-      </c>
-      <c r="F284" t="s">
-        <v>568</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12617,10 +12593,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>568</v>
+      </c>
+      <c r="F285" t="s">
         <v>569</v>
-      </c>
-      <c r="F285" t="s">
-        <v>570</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12646,10 +12622,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>570</v>
+      </c>
+      <c r="F286" t="s">
         <v>571</v>
-      </c>
-      <c r="F286" t="s">
-        <v>572</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12675,10 +12651,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>572</v>
+      </c>
+      <c r="F287" t="s">
         <v>573</v>
-      </c>
-      <c r="F287" t="s">
-        <v>574</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12704,10 +12680,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>574</v>
+      </c>
+      <c r="F288" t="s">
         <v>575</v>
-      </c>
-      <c r="F288" t="s">
-        <v>576</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12733,10 +12709,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>576</v>
+      </c>
+      <c r="F289" t="s">
         <v>577</v>
-      </c>
-      <c r="F289" t="s">
-        <v>578</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12762,10 +12738,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>578</v>
+      </c>
+      <c r="F290" t="s">
         <v>579</v>
-      </c>
-      <c r="F290" t="s">
-        <v>580</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12791,10 +12767,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>580</v>
+      </c>
+      <c r="F291" t="s">
         <v>581</v>
-      </c>
-      <c r="F291" t="s">
-        <v>582</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12820,10 +12796,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>582</v>
+      </c>
+      <c r="F292" t="s">
         <v>583</v>
-      </c>
-      <c r="F292" t="s">
-        <v>584</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12849,10 +12825,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>584</v>
+      </c>
+      <c r="F293" t="s">
         <v>585</v>
-      </c>
-      <c r="F293" t="s">
-        <v>586</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -12878,10 +12854,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>586</v>
+      </c>
+      <c r="F294" t="s">
         <v>587</v>
-      </c>
-      <c r="F294" t="s">
-        <v>588</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12907,10 +12883,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>588</v>
+      </c>
+      <c r="F295" t="s">
         <v>589</v>
-      </c>
-      <c r="F295" t="s">
-        <v>590</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12936,10 +12912,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>590</v>
+      </c>
+      <c r="F296" t="s">
         <v>591</v>
-      </c>
-      <c r="F296" t="s">
-        <v>592</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -12965,10 +12941,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>592</v>
+      </c>
+      <c r="F297" t="s">
         <v>593</v>
-      </c>
-      <c r="F297" t="s">
-        <v>594</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12994,10 +12970,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>594</v>
+      </c>
+      <c r="F298" t="s">
         <v>595</v>
-      </c>
-      <c r="F298" t="s">
-        <v>596</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -13023,10 +12999,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>596</v>
+      </c>
+      <c r="F299" t="s">
         <v>597</v>
-      </c>
-      <c r="F299" t="s">
-        <v>598</v>
       </c>
       <c r="G299" t="n">
         <v>4</v>
@@ -13052,10 +13028,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>598</v>
+      </c>
+      <c r="F300" t="s">
         <v>599</v>
-      </c>
-      <c r="F300" t="s">
-        <v>600</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -13081,10 +13057,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>600</v>
+      </c>
+      <c r="F301" t="s">
         <v>601</v>
-      </c>
-      <c r="F301" t="s">
-        <v>602</v>
       </c>
       <c r="G301" t="n">
         <v>13</v>
@@ -13110,10 +13086,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>602</v>
+      </c>
+      <c r="F302" t="s">
         <v>603</v>
-      </c>
-      <c r="F302" t="s">
-        <v>604</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -13139,10 +13115,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>604</v>
+      </c>
+      <c r="F303" t="s">
         <v>605</v>
-      </c>
-      <c r="F303" t="s">
-        <v>606</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -13168,10 +13144,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>606</v>
+      </c>
+      <c r="F304" t="s">
         <v>607</v>
-      </c>
-      <c r="F304" t="s">
-        <v>608</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -13197,10 +13173,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>608</v>
+      </c>
+      <c r="F305" t="s">
         <v>609</v>
-      </c>
-      <c r="F305" t="s">
-        <v>610</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -13226,10 +13202,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>610</v>
+      </c>
+      <c r="F306" t="s">
         <v>611</v>
-      </c>
-      <c r="F306" t="s">
-        <v>612</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -13255,10 +13231,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>612</v>
+      </c>
+      <c r="F307" t="s">
         <v>613</v>
-      </c>
-      <c r="F307" t="s">
-        <v>614</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -13284,10 +13260,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>614</v>
+      </c>
+      <c r="F308" t="s">
         <v>615</v>
-      </c>
-      <c r="F308" t="s">
-        <v>616</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -13313,10 +13289,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>616</v>
+      </c>
+      <c r="F309" t="s">
         <v>617</v>
-      </c>
-      <c r="F309" t="s">
-        <v>618</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -13342,10 +13318,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>618</v>
+      </c>
+      <c r="F310" t="s">
         <v>619</v>
-      </c>
-      <c r="F310" t="s">
-        <v>620</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13371,10 +13347,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>620</v>
+      </c>
+      <c r="F311" t="s">
         <v>621</v>
-      </c>
-      <c r="F311" t="s">
-        <v>622</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13400,10 +13376,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>622</v>
+      </c>
+      <c r="F312" t="s">
         <v>623</v>
-      </c>
-      <c r="F312" t="s">
-        <v>624</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13429,10 +13405,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>624</v>
+      </c>
+      <c r="F313" t="s">
         <v>625</v>
-      </c>
-      <c r="F313" t="s">
-        <v>626</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13458,10 +13434,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>626</v>
+      </c>
+      <c r="F314" t="s">
         <v>627</v>
-      </c>
-      <c r="F314" t="s">
-        <v>628</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13487,10 +13463,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>628</v>
+      </c>
+      <c r="F315" t="s">
         <v>629</v>
-      </c>
-      <c r="F315" t="s">
-        <v>630</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13516,10 +13492,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>630</v>
+      </c>
+      <c r="F316" t="s">
         <v>631</v>
-      </c>
-      <c r="F316" t="s">
-        <v>632</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13545,10 +13521,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>632</v>
+      </c>
+      <c r="F317" t="s">
         <v>633</v>
-      </c>
-      <c r="F317" t="s">
-        <v>634</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13574,10 +13550,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>634</v>
+      </c>
+      <c r="F318" t="s">
         <v>635</v>
-      </c>
-      <c r="F318" t="s">
-        <v>636</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13603,10 +13579,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>636</v>
+      </c>
+      <c r="F319" t="s">
         <v>637</v>
-      </c>
-      <c r="F319" t="s">
-        <v>638</v>
       </c>
       <c r="G319" t="n">
         <v>8</v>
@@ -13632,10 +13608,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>638</v>
+      </c>
+      <c r="F320" t="s">
         <v>639</v>
-      </c>
-      <c r="F320" t="s">
-        <v>640</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13661,10 +13637,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>640</v>
+      </c>
+      <c r="F321" t="s">
         <v>641</v>
-      </c>
-      <c r="F321" t="s">
-        <v>642</v>
       </c>
       <c r="G321" t="n">
         <v>9</v>
@@ -13690,10 +13666,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>642</v>
+      </c>
+      <c r="F322" t="s">
         <v>643</v>
-      </c>
-      <c r="F322" t="s">
-        <v>644</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -13719,10 +13695,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>644</v>
+      </c>
+      <c r="F323" t="s">
         <v>645</v>
-      </c>
-      <c r="F323" t="s">
-        <v>646</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -13748,10 +13724,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>646</v>
+      </c>
+      <c r="F324" t="s">
         <v>647</v>
-      </c>
-      <c r="F324" t="s">
-        <v>648</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13777,10 +13753,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>648</v>
+      </c>
+      <c r="F325" t="s">
         <v>649</v>
-      </c>
-      <c r="F325" t="s">
-        <v>650</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13806,10 +13782,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>650</v>
+      </c>
+      <c r="F326" t="s">
         <v>651</v>
-      </c>
-      <c r="F326" t="s">
-        <v>652</v>
       </c>
       <c r="G326" t="n">
         <v>37</v>
@@ -13864,10 +13840,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>652</v>
+      </c>
+      <c r="F328" t="s">
         <v>653</v>
-      </c>
-      <c r="F328" t="s">
-        <v>654</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13893,10 +13869,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>654</v>
+      </c>
+      <c r="F329" t="s">
         <v>655</v>
-      </c>
-      <c r="F329" t="s">
-        <v>656</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13922,10 +13898,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>656</v>
+      </c>
+      <c r="F330" t="s">
         <v>657</v>
-      </c>
-      <c r="F330" t="s">
-        <v>658</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13951,10 +13927,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>658</v>
+      </c>
+      <c r="F331" t="s">
         <v>659</v>
-      </c>
-      <c r="F331" t="s">
-        <v>660</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13980,10 +13956,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>660</v>
+      </c>
+      <c r="F332" t="s">
         <v>661</v>
-      </c>
-      <c r="F332" t="s">
-        <v>662</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -14009,10 +13985,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>662</v>
+      </c>
+      <c r="F333" t="s">
         <v>663</v>
-      </c>
-      <c r="F333" t="s">
-        <v>664</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -14038,10 +14014,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>664</v>
+      </c>
+      <c r="F334" t="s">
         <v>665</v>
-      </c>
-      <c r="F334" t="s">
-        <v>666</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -14067,10 +14043,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>666</v>
+      </c>
+      <c r="F335" t="s">
         <v>667</v>
-      </c>
-      <c r="F335" t="s">
-        <v>668</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -14096,10 +14072,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>668</v>
+      </c>
+      <c r="F336" t="s">
         <v>669</v>
-      </c>
-      <c r="F336" t="s">
-        <v>670</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -14125,10 +14101,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>670</v>
+      </c>
+      <c r="F337" t="s">
         <v>671</v>
-      </c>
-      <c r="F337" t="s">
-        <v>672</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -14154,10 +14130,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>672</v>
+      </c>
+      <c r="F338" t="s">
         <v>673</v>
-      </c>
-      <c r="F338" t="s">
-        <v>674</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -14183,10 +14159,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>674</v>
+      </c>
+      <c r="F339" t="s">
         <v>675</v>
-      </c>
-      <c r="F339" t="s">
-        <v>676</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -14212,10 +14188,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>676</v>
+      </c>
+      <c r="F340" t="s">
         <v>677</v>
-      </c>
-      <c r="F340" t="s">
-        <v>678</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -14241,10 +14217,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>678</v>
+      </c>
+      <c r="F341" t="s">
         <v>679</v>
-      </c>
-      <c r="F341" t="s">
-        <v>680</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -14270,10 +14246,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>680</v>
+      </c>
+      <c r="F342" t="s">
         <v>681</v>
-      </c>
-      <c r="F342" t="s">
-        <v>682</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -14299,10 +14275,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>682</v>
+      </c>
+      <c r="F343" t="s">
         <v>683</v>
-      </c>
-      <c r="F343" t="s">
-        <v>684</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14328,10 +14304,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>684</v>
+      </c>
+      <c r="F344" t="s">
         <v>685</v>
-      </c>
-      <c r="F344" t="s">
-        <v>686</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14357,10 +14333,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>686</v>
+      </c>
+      <c r="F345" t="s">
         <v>687</v>
-      </c>
-      <c r="F345" t="s">
-        <v>688</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14386,10 +14362,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>688</v>
+      </c>
+      <c r="F346" t="s">
         <v>689</v>
-      </c>
-      <c r="F346" t="s">
-        <v>690</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14415,10 +14391,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F347" t="s">
-        <v>692</v>
+        <v>120</v>
       </c>
       <c r="G347" t="n">
         <v>3</v>
@@ -14444,10 +14420,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F348" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14473,10 +14449,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F349" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G349" t="n">
         <v>4</v>
@@ -14502,10 +14478,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F350" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14531,10 +14507,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F351" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -14560,10 +14536,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F352" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G352" t="n">
         <v>4</v>
@@ -14589,10 +14565,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F353" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14618,10 +14594,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F354" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -14647,10 +14623,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>420</v>
+      </c>
+      <c r="F355" t="s">
         <v>421</v>
-      </c>
-      <c r="F355" t="s">
-        <v>422</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14676,10 +14652,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F356" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14705,10 +14681,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F357" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14734,10 +14710,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F358" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14763,10 +14739,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F359" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14792,10 +14768,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F360" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14821,10 +14797,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F361" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14850,10 +14826,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F362" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14879,10 +14855,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F363" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14908,10 +14884,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F364" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14937,10 +14913,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F365" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14966,10 +14942,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F366" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14995,10 +14971,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>458</v>
+      </c>
+      <c r="F367" t="s">
         <v>459</v>
-      </c>
-      <c r="F367" t="s">
-        <v>460</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -15024,10 +15000,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F368" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -15053,10 +15029,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F369" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -15082,10 +15058,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F370" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -15111,10 +15087,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F371" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -15140,10 +15116,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F372" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -15169,10 +15145,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F373" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15198,10 +15174,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F374" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15227,10 +15203,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F375" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15256,10 +15232,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F376" t="s">
-        <v>746</v>
+        <v>66</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -15285,10 +15261,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F377" t="s">
-        <v>748</v>
+        <v>213</v>
       </c>
       <c r="G377" t="n">
         <v>4</v>
@@ -15314,10 +15290,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F378" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15343,10 +15319,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F379" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15372,10 +15348,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F380" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G380" t="n">
         <v>15</v>
@@ -15401,10 +15377,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F381" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15430,10 +15406,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F382" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15459,10 +15435,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F383" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15488,10 +15464,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F384" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G384" t="n">
         <v>3</v>
@@ -15517,10 +15493,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F385" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15546,10 +15522,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F386" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15575,10 +15551,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F387" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15604,10 +15580,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F388" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15633,10 +15609,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F389" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G389" t="n">
         <v>3</v>
@@ -15662,10 +15638,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F390" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15691,10 +15667,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F391" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15720,10 +15696,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F392" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G392" t="n">
         <v>3</v>
@@ -15749,10 +15725,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F393" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G393" t="n">
         <v>3</v>
@@ -15778,10 +15754,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F394" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15807,10 +15783,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F395" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15836,10 +15812,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F396" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15865,10 +15841,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F397" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15894,10 +15870,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F398" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15923,10 +15899,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F399" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15952,10 +15928,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F400" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15981,10 +15957,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F401" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -16010,10 +15986,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F402" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -16039,10 +16015,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F403" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -16068,10 +16044,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F404" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -16097,10 +16073,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F405" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -16126,10 +16102,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F406" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -16155,10 +16131,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F407" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -16184,10 +16160,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F408" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16213,10 +16189,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F409" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G409" t="n">
         <v>8</v>
@@ -16242,10 +16218,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F410" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -16271,10 +16247,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F411" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -16300,10 +16276,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F412" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -16329,10 +16305,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F413" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -16358,10 +16334,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F414" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -16387,10 +16363,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F415" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -16416,10 +16392,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F416" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -16445,10 +16421,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F417" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16474,10 +16450,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F418" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16503,10 +16479,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F419" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16532,10 +16508,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F420" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16561,10 +16537,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F421" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16590,10 +16566,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F422" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16619,10 +16595,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F423" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16648,10 +16624,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F424" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16677,10 +16653,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F425" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16706,10 +16682,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F426" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16735,10 +16711,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F427" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16764,10 +16740,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F428" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16793,10 +16769,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F429" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G429" t="n">
         <v>2</v>
@@ -16822,10 +16798,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F430" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16851,10 +16827,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F431" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16880,10 +16856,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F432" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16909,10 +16885,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F433" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16938,10 +16914,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F434" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16967,10 +16943,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F435" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16996,10 +16972,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F436" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -17025,10 +17001,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F437" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -17054,10 +17030,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F438" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -17083,10 +17059,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F439" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G439" t="n">
         <v>4</v>
@@ -17112,10 +17088,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F440" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -17141,10 +17117,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F441" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -17170,10 +17146,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F442" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -17199,10 +17175,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F443" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -17228,10 +17204,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F444" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17257,10 +17233,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F445" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -17286,10 +17262,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F446" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17315,10 +17291,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F447" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -17344,10 +17320,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F448" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -17373,10 +17349,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F449" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -17402,10 +17378,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F450" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17431,10 +17407,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F451" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17460,10 +17436,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F452" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -17489,10 +17465,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F453" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17518,10 +17494,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F454" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17547,10 +17523,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F455" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17576,10 +17552,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F456" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17605,10 +17581,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F457" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17634,10 +17610,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F458" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17663,10 +17639,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F459" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17692,10 +17668,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F460" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -17721,10 +17697,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F461" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -17750,10 +17726,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F462" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17779,10 +17755,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F463" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17808,10 +17784,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F464" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17837,10 +17813,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F465" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -17866,10 +17842,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F466" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17895,10 +17871,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F467" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17924,10 +17900,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F468" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17953,10 +17929,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F469" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17982,10 +17958,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F470" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -18011,10 +17987,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F471" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -18040,10 +18016,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F472" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -18069,10 +18045,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F473" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -18098,10 +18074,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F474" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -18127,10 +18103,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F475" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -18156,10 +18132,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F476" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -18185,10 +18161,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F477" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18214,10 +18190,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F478" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18243,10 +18219,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F479" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18272,10 +18248,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F480" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18301,10 +18277,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F481" t="s">
-        <v>954</v>
+        <v>52</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18330,10 +18306,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F482" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G482" t="n">
         <v>10</v>
@@ -18359,10 +18335,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
+        <v>292</v>
+      </c>
+      <c r="F483" t="s">
         <v>293</v>
-      </c>
-      <c r="F483" t="s">
-        <v>294</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -18388,10 +18364,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F484" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -18417,10 +18393,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F485" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G485" t="n">
         <v>9</v>
@@ -18446,10 +18422,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F486" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G486" t="n">
         <v>318</v>
@@ -18475,10 +18451,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F487" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G487" t="n">
         <v>3</v>
@@ -18504,10 +18480,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F488" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18533,10 +18509,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F489" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G489" t="n">
         <v>2</v>
@@ -18562,10 +18538,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F490" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G490" t="n">
         <v>3</v>
@@ -18591,10 +18567,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F491" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G491" t="n">
         <v>31</v>
@@ -18620,10 +18596,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F492" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18649,10 +18625,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F493" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G493" t="n">
         <v>3</v>
@@ -18678,10 +18654,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F494" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18707,10 +18683,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="F495" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18736,10 +18712,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F496" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18765,10 +18741,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F497" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="G497" t="n">
         <v>22</v>
@@ -18794,10 +18770,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F498" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18823,10 +18799,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F499" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="G499" t="n">
         <v>21</v>
@@ -18852,10 +18828,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F500" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18881,10 +18857,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F501" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18910,10 +18886,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F502" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18939,10 +18915,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="F503" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="G503" t="n">
         <v>3</v>
@@ -18968,10 +18944,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="F504" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18997,10 +18973,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F505" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -19026,10 +19002,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="F506" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -19055,10 +19031,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="F507" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -19084,10 +19060,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F508" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="G508" t="n">
         <v>2</v>
@@ -19113,10 +19089,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F509" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="G509" t="n">
         <v>2</v>
@@ -19142,10 +19118,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F510" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="G510" t="n">
         <v>2</v>
@@ -19171,10 +19147,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F511" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19200,10 +19176,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F512" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G512" t="n">
         <v>2</v>
@@ -19229,10 +19205,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F513" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -19258,10 +19234,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F514" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="G514" t="n">
         <v>2</v>
@@ -19287,10 +19263,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F515" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="G515" t="n">
         <v>2</v>
@@ -19316,10 +19292,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F516" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="G516" t="n">
         <v>2</v>
@@ -19345,10 +19321,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F517" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="G517" t="n">
         <v>4</v>
@@ -19374,10 +19350,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F518" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -19403,10 +19379,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="F519" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="G519" t="n">
         <v>2</v>
@@ -19432,10 +19408,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F520" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="G520" t="n">
         <v>2</v>
@@ -19461,10 +19437,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="F521" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19490,10 +19466,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="F522" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G522" t="n">
         <v>2</v>
@@ -19519,10 +19495,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="F523" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="G523" t="n">
         <v>3</v>
@@ -19548,10 +19524,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="F524" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="G524" t="n">
         <v>3</v>
@@ -19577,10 +19553,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="F525" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="G525" t="n">
         <v>2</v>
@@ -19606,10 +19582,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="F526" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19635,10 +19611,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="F527" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="G527" t="n">
         <v>2</v>
@@ -19664,10 +19640,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="F528" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19693,10 +19669,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="F529" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19722,10 +19698,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F530" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="G530" t="n">
         <v>2</v>
@@ -19751,10 +19727,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="F531" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19780,10 +19756,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F532" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="G532" t="n">
         <v>2</v>
@@ -19809,10 +19785,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="F533" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="G533" t="n">
         <v>11</v>
@@ -19838,10 +19814,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F534" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="G534" t="n">
         <v>12</v>
@@ -19867,10 +19843,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="F535" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="G535" t="n">
         <v>11</v>
@@ -19896,10 +19872,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="F536" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="G536" t="n">
         <v>2</v>
@@ -19925,10 +19901,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="F537" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="G537" t="n">
         <v>2</v>
@@ -19954,10 +19930,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="F538" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19983,10 +19959,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="F539" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -20012,10 +19988,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="F540" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="G540" t="n">
         <v>2</v>
@@ -20041,10 +20017,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="F541" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="G541" t="n">
         <v>2</v>
@@ -20070,10 +20046,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="F542" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -20099,10 +20075,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="F543" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G543" t="n">
         <v>2</v>
@@ -20128,10 +20104,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="F544" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -20157,10 +20133,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="F545" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -20186,10 +20162,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="F546" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20215,10 +20191,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="F547" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="G547" t="n">
         <v>2</v>
@@ -20244,10 +20220,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="F548" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="G548" t="n">
         <v>2</v>
@@ -20273,10 +20249,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="F549" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20302,10 +20278,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="F550" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="G550" t="n">
         <v>41</v>
@@ -20331,10 +20307,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="F551" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20360,10 +20336,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="F552" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="G552" t="n">
         <v>2</v>
@@ -20389,10 +20365,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="F553" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20418,10 +20394,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="F554" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="G554" t="n">
         <v>3</v>
@@ -20447,10 +20423,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="F555" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="G555" t="n">
         <v>2</v>
@@ -20476,10 +20452,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F556" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20505,10 +20481,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="F557" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20534,10 +20510,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="F558" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20563,10 +20539,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="F559" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="G559" t="n">
         <v>2</v>
@@ -20592,10 +20568,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="F560" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20621,10 +20597,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="F561" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20650,10 +20626,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="F562" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20679,10 +20655,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="F563" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="G563" t="n">
         <v>2</v>
@@ -20708,10 +20684,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="F564" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20737,10 +20713,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="F565" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="G565" t="n">
         <v>2</v>
@@ -20766,10 +20742,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="F566" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20795,10 +20771,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="F567" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20824,10 +20800,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="F568" t="s">
-        <v>1120</v>
+        <v>1087</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20853,10 +20829,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F569" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20882,10 +20858,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="F570" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20911,10 +20887,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="F571" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20940,10 +20916,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="F572" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20969,10 +20945,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="F573" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20998,10 +20974,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F574" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="G574" t="n">
         <v>2</v>
@@ -21027,10 +21003,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F575" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -21056,10 +21032,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="F576" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="G576" t="n">
         <v>2</v>
@@ -21085,10 +21061,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="F577" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -21114,10 +21090,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F578" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -21143,10 +21119,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="F579" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -21172,10 +21148,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F580" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21201,10 +21177,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F581" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="G581" t="n">
         <v>2</v>
@@ -21230,10 +21206,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F582" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21259,10 +21235,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="F583" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21288,10 +21264,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F584" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21317,10 +21293,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="F585" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="G585" t="n">
         <v>2</v>
@@ -21346,10 +21322,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="F586" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21375,10 +21351,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="F587" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21404,10 +21380,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="F588" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="G588" t="n">
         <v>2</v>
@@ -21433,10 +21409,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="F589" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="G589" t="n">
         <v>2</v>
@@ -21462,10 +21438,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="F590" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="G590" t="n">
         <v>2</v>
@@ -21491,10 +21467,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="F591" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="G591" t="n">
         <v>2</v>
@@ -21520,10 +21496,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="F592" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="G592" t="n">
         <v>2</v>
@@ -21549,10 +21525,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="F593" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21578,10 +21554,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="F594" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21607,10 +21583,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="F595" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21636,10 +21612,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="F596" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21665,10 +21641,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F597" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21694,10 +21670,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="F598" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21723,10 +21699,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="F599" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21752,10 +21728,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="F600" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="G600" t="n">
         <v>2</v>
@@ -21781,10 +21757,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="F601" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21810,10 +21786,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="F602" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21839,10 +21815,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="F603" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="G603" t="n">
         <v>2</v>
@@ -21868,10 +21844,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="F604" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21897,10 +21873,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="F605" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21926,10 +21902,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="F606" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21955,10 +21931,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="F607" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21984,10 +21960,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="F608" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -22013,10 +21989,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F609" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="G609" t="n">
         <v>2</v>
@@ -22042,10 +22018,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F610" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="G610" t="n">
         <v>2</v>
@@ -22071,10 +22047,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="F611" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -22100,10 +22076,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="F612" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="G612" t="n">
         <v>2</v>
@@ -22129,10 +22105,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="F613" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="G613" t="n">
         <v>2</v>
@@ -22158,10 +22134,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="F614" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -22187,10 +22163,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="F615" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="G615" t="n">
         <v>2</v>
@@ -22216,10 +22192,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="F616" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22245,10 +22221,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="F617" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="G617" t="n">
         <v>2</v>
@@ -22274,10 +22250,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="F618" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22303,10 +22279,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="F619" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22332,13 +22308,13 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="F620" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="G620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H620" t="s">
         <v>4</v>
@@ -22361,13 +22337,13 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F621" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="G621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H621" t="s">
         <v>4</v>
@@ -22390,10 +22366,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="F622" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22419,13 +22395,13 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="F623" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="G623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H623" t="s">
         <v>4</v>
@@ -22448,13 +22424,13 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="F624" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="G624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H624" t="s">
         <v>4</v>
@@ -22477,13 +22453,13 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="F625" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="G625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H625" t="s">
         <v>4</v>
@@ -22506,10 +22482,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="F626" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G626" t="n">
         <v>4</v>
@@ -22535,10 +22511,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="F627" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22564,10 +22540,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="F628" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22593,10 +22569,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="F629" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22622,10 +22598,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="F630" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22651,10 +22627,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="F631" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="G631" t="n">
         <v>2</v>
@@ -22680,10 +22656,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="F632" t="s">
-        <v>1246</v>
+        <v>0</v>
       </c>
       <c r="G632" t="n">
         <v>41</v>
@@ -22709,10 +22685,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="F633" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="G633" t="n">
         <v>40</v>
@@ -22738,10 +22714,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="F634" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="G634" t="n">
         <v>6</v>
@@ -22767,10 +22743,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="F635" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="G635" t="n">
         <v>2</v>
@@ -22796,10 +22772,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="F636" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22825,10 +22801,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="F637" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22854,10 +22830,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="F638" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22883,10 +22859,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F639" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22912,10 +22888,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="F640" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22941,10 +22917,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="F641" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22999,10 +22975,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="F643" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="G643" t="n">
         <v>5</v>
@@ -23028,10 +23004,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="F644" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="G644" t="n">
         <v>2</v>
@@ -23057,10 +23033,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="F645" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -23086,10 +23062,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="F646" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="G646" t="n">
         <v>2</v>
@@ -23115,10 +23091,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="F647" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="G647" t="n">
         <v>2</v>
@@ -23144,10 +23120,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="F648" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="G648" t="n">
         <v>2</v>
@@ -23173,10 +23149,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="F649" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="G649" t="n">
         <v>2</v>
@@ -23202,10 +23178,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="F650" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="G650" t="n">
         <v>2</v>
@@ -23231,10 +23207,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="F651" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="G651" t="n">
         <v>2</v>
@@ -23260,10 +23236,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="F652" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G652" t="n">
         <v>2</v>
@@ -23289,10 +23265,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="F653" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="G653" t="n">
         <v>2</v>
@@ -23318,10 +23294,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="F654" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="G654" t="n">
         <v>2</v>
@@ -23347,10 +23323,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="F655" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="G655" t="n">
         <v>2</v>
@@ -23376,10 +23352,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="F656" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="G656" t="n">
         <v>2</v>
@@ -23405,10 +23381,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="F657" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23434,10 +23410,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="F658" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23463,10 +23439,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="F659" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23492,10 +23468,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="F660" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23521,10 +23497,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="F661" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="G661" t="n">
         <v>2</v>
@@ -23550,10 +23526,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="F662" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="G662" t="n">
         <v>2</v>
@@ -23579,10 +23555,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="F663" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="G663" t="n">
         <v>6</v>
@@ -23608,10 +23584,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="F664" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="G664" t="n">
         <v>2</v>
@@ -23637,10 +23613,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="F665" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="G665" t="n">
         <v>2</v>
@@ -23666,10 +23642,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="F666" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23695,10 +23671,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="F667" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="G667" t="n">
         <v>2</v>
@@ -23724,10 +23700,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="F668" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="G668" t="n">
         <v>2</v>
@@ -23753,10 +23729,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="F669" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="G669" t="n">
         <v>2</v>
@@ -23782,10 +23758,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="F670" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="G670" t="n">
         <v>2</v>
@@ -23811,10 +23787,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="F671" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="G671" t="n">
         <v>2</v>
@@ -23840,10 +23816,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="F672" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="G672" t="n">
         <v>2</v>
@@ -23869,10 +23845,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="F673" t="s">
-        <v>1324</v>
+        <v>577</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23898,10 +23874,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="F674" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="G674" t="n">
         <v>3</v>
@@ -23927,10 +23903,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="F675" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -23956,10 +23932,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="F676" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -23985,10 +23961,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="F677" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
